--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="127">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,102 +40,96 @@
     <t>name</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>arrested</t>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>warning</t>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>war</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>fuck</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>fear</t>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>anxiety</t>
   </si>
   <si>
-    <t>shit</t>
+    <t>shortage</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
     <t>isolation</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>shortage</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>fight</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -151,241 +145,253 @@
     <t>co</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>shop</t>
+    <t>us</t>
   </si>
   <si>
     <t>san</t>
   </si>
   <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>us</t>
+    <t>get</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>people</t>
   </si>
   <si>
     <t>food</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>people</t>
   </si>
   <si>
     <t>prices</t>
@@ -746,7 +752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:Q87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -754,10 +760,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -815,13 +821,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -833,31 +839,31 @@
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3">
+        <v>0.9661016949152542</v>
+      </c>
+      <c r="L3">
+        <v>57</v>
+      </c>
+      <c r="M3">
+        <v>57</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>2</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3">
-        <v>0.9696969696969697</v>
-      </c>
-      <c r="L3">
-        <v>32</v>
-      </c>
-      <c r="M3">
-        <v>32</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -865,13 +871,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9333333333333333</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -883,19 +889,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K4">
-        <v>0.9347826086956522</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -907,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -915,13 +921,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8055555555555556</v>
+        <v>0.8</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -933,19 +939,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -957,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -965,13 +971,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -983,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1007,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1015,13 +1021,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7692307692307693</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1033,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K7">
-        <v>0.8780487804878049</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="L7">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="M7">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1057,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1065,13 +1071,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7241379310344828</v>
+        <v>0.7226027397260274</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>211</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>211</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1083,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K8">
-        <v>0.8723404255319149</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L8">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="M8">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1107,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1115,13 +1121,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7054794520547946</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C9">
-        <v>206</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>206</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1133,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K9">
-        <v>0.8482142857142857</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L9">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1157,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1165,13 +1171,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5666666666666667</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1183,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K10">
-        <v>0.8359375</v>
+        <v>0.8046875</v>
       </c>
       <c r="L10">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M10">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1207,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1215,13 +1221,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5526315789473685</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1233,19 +1239,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K11">
-        <v>0.823943661971831</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L11">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="M11">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1265,13 +1271,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5405405405405406</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1283,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K12">
-        <v>0.8103448275862069</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L12">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="M12">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1307,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1315,13 +1321,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5384615384615384</v>
+        <v>0.6</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1336,7 +1342,7 @@
         <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K13">
         <v>0.7843137254901961</v>
@@ -1365,37 +1371,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5161290322580645</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="C14">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>16</v>
       </c>
-      <c r="D14">
-        <v>16</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>15</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L14">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M14">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1415,13 +1421,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5128205128205128</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1433,19 +1439,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K15">
-        <v>0.775</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L15">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="M15">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1457,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1465,13 +1471,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5066666666666667</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C16">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1483,19 +1489,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K16">
-        <v>0.7553191489361702</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L16">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="M16">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1507,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1515,7 +1521,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4871794871794872</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="C17">
         <v>19</v>
@@ -1533,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K17">
-        <v>0.7169811320754716</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L17">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M17">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1557,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1565,13 +1571,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4838709677419355</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1583,19 +1589,19 @@
         <v>0</v>
       </c>
       <c r="H18">
+        <v>20</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="L18">
         <v>16</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K18">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L18">
-        <v>45</v>
-      </c>
       <c r="M18">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1607,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1636,16 +1642,16 @@
         <v>19</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K19">
-        <v>0.70625</v>
+        <v>0.71875</v>
       </c>
       <c r="L19">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M19">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1657,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1665,13 +1671,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4429530201342282</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C20">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="D20">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1683,19 +1689,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K20">
-        <v>0.6666666666666666</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1707,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1715,13 +1721,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4333333333333333</v>
+        <v>0.4476744186046512</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>231</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>231</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1733,19 +1739,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K21">
-        <v>0.66</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1757,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1765,13 +1771,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4324324324324325</v>
+        <v>0.4429530201342282</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1783,19 +1789,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K22">
-        <v>0.6449086161879896</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L22">
-        <v>247</v>
+        <v>24</v>
       </c>
       <c r="M22">
-        <v>247</v>
+        <v>24</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1807,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>136</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1815,13 +1821,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4117647058823529</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1833,19 +1839,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K23">
-        <v>0.6296296296296297</v>
+        <v>0.6475195822454308</v>
       </c>
       <c r="L23">
-        <v>17</v>
+        <v>248</v>
       </c>
       <c r="M23">
-        <v>17</v>
+        <v>248</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1857,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1865,13 +1871,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4117647058823529</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1883,19 +1889,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K24">
-        <v>0.625</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1907,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1915,13 +1921,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4108527131782946</v>
+        <v>0.4</v>
       </c>
       <c r="C25">
-        <v>212</v>
+        <v>30</v>
       </c>
       <c r="D25">
-        <v>212</v>
+        <v>30</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1933,19 +1939,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>304</v>
+        <v>45</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K25">
-        <v>0.6176470588235294</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L25">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1957,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1965,13 +1971,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3898305084745763</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1983,19 +1989,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K26">
-        <v>0.5882352941176471</v>
+        <v>0.6</v>
       </c>
       <c r="L26">
-        <v>200</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>200</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2007,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>140</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2015,13 +2021,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3636363636363636</v>
+        <v>0.3386243386243386</v>
       </c>
       <c r="C27">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="D27">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2033,19 +2039,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K27">
-        <v>0.5833333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="L27">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="M27">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2057,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2065,13 +2071,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3559322033898305</v>
+        <v>0.3222222222222222</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D28">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2083,19 +2089,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K28">
-        <v>0.5796610169491525</v>
+        <v>0.5970588235294118</v>
       </c>
       <c r="L28">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="M28">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2107,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2115,28 +2121,28 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3404255319148936</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C29">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="D29">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="E29">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K29">
         <v>0.575</v>
@@ -2165,13 +2171,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.325</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D30">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2183,19 +2189,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K30">
-        <v>0.5730337078651685</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="L30">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="M30">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2207,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>38</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2215,13 +2221,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3090909090909091</v>
+        <v>0.2875</v>
       </c>
       <c r="C31">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D31">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2233,19 +2239,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K31">
-        <v>0.5606694560669456</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L31">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="M31">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2257,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>105</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2265,37 +2271,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3037974683544304</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C32">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D32">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E32">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>55</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K32">
-        <v>0.5555555555555556</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2307,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2315,13 +2321,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2678571428571428</v>
+        <v>0.25</v>
       </c>
       <c r="C33">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="D33">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2333,19 +2339,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K33">
-        <v>0.5384615384615384</v>
+        <v>0.54</v>
       </c>
       <c r="L33">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2357,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2365,13 +2371,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2555555555555555</v>
+        <v>0.1474530831099196</v>
       </c>
       <c r="C34">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D34">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2383,13 +2389,13 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>67</v>
+        <v>318</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K34">
-        <v>0.5</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L34">
         <v>18</v>
@@ -2407,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2415,37 +2421,37 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2301587301587301</v>
+        <v>0.1090909090909091</v>
       </c>
       <c r="C35">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>194</v>
+        <v>147</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K35">
-        <v>0.4931506849315068</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L35">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2457,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2465,37 +2471,37 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1554959785522788</v>
+        <v>0.008922880815806247</v>
       </c>
       <c r="C36">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="D36">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>315</v>
+        <v>3110</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K36">
-        <v>0.4883720930232558</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2507,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2515,187 +2521,115 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.0963855421686747</v>
+        <v>0.006343906510851419</v>
       </c>
       <c r="C37">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D37">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>150</v>
+        <v>2976</v>
       </c>
       <c r="J37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K37">
+        <v>0.502092050209205</v>
+      </c>
+      <c r="L37">
+        <v>120</v>
+      </c>
+      <c r="M37">
+        <v>120</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="J38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K38">
+        <v>0.5</v>
+      </c>
+      <c r="L38">
+        <v>39</v>
+      </c>
+      <c r="M38">
+        <v>39</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="J39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K39">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="L39">
+        <v>13</v>
+      </c>
+      <c r="M39">
+        <v>13</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="J40" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K37">
-        <v>0.484375</v>
-      </c>
-      <c r="L37">
-        <v>31</v>
-      </c>
-      <c r="M37">
-        <v>31</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38">
-        <v>0.008664955070603338</v>
-      </c>
-      <c r="C38">
-        <v>27</v>
-      </c>
-      <c r="D38">
-        <v>112</v>
-      </c>
-      <c r="E38">
-        <v>0.76</v>
-      </c>
-      <c r="F38">
-        <v>0.24</v>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>3089</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K38">
-        <v>0.4743589743589743</v>
-      </c>
-      <c r="L38">
-        <v>37</v>
-      </c>
-      <c r="M38">
-        <v>37</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39">
-        <v>0.008032128514056224</v>
-      </c>
-      <c r="C39">
-        <v>24</v>
-      </c>
-      <c r="D39">
-        <v>143</v>
-      </c>
-      <c r="E39">
-        <v>0.83</v>
-      </c>
-      <c r="F39">
-        <v>0.17</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>2964</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K39">
-        <v>0.4680851063829787</v>
-      </c>
-      <c r="L39">
-        <v>22</v>
-      </c>
-      <c r="M39">
-        <v>22</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40">
-        <v>0.007003501750875438</v>
-      </c>
-      <c r="C40">
-        <v>14</v>
-      </c>
-      <c r="D40">
-        <v>158</v>
-      </c>
-      <c r="E40">
-        <v>0.91</v>
-      </c>
-      <c r="F40">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>1985</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="K40">
-        <v>0.4516129032258064</v>
+        <v>0.453125</v>
       </c>
       <c r="L40">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M40">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2707,21 +2641,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K41">
-        <v>0.4285714285714285</v>
+        <v>0.45</v>
       </c>
       <c r="L41">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M41">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2733,21 +2667,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K42">
-        <v>0.425</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L42">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M42">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2759,21 +2693,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K43">
-        <v>0.4</v>
+        <v>0.4142857142857143</v>
       </c>
       <c r="L43">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M43">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2785,21 +2719,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K44">
-        <v>0.3571428571428572</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="L44">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M44">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2811,21 +2745,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K45">
-        <v>0.288135593220339</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="L45">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M45">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2837,21 +2771,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K46">
-        <v>0.2622950819672131</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L46">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M46">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2863,21 +2797,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K47">
-        <v>0.25</v>
+        <v>0.2978723404255319</v>
       </c>
       <c r="L47">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M47">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2889,47 +2823,47 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K48">
-        <v>0.2153846153846154</v>
+        <v>0.2830188679245283</v>
       </c>
       <c r="L48">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M48">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="N48">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>102</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K49">
-        <v>0.2105263157894737</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L49">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M49">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2941,21 +2875,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K50">
-        <v>0.1811023622047244</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="L50">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M50">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2967,21 +2901,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>104</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K51">
-        <v>0.1802884615384615</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="L51">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M51">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2993,21 +2927,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>341</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K52">
-        <v>0.1779141104294479</v>
+        <v>0.2057416267942584</v>
       </c>
       <c r="L52">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="M52">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3019,99 +2953,99 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>134</v>
+        <v>332</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K53">
-        <v>0.1726618705035971</v>
+        <v>0.1811023622047244</v>
       </c>
       <c r="L53">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="M53">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="N53">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>345</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K54">
-        <v>0.1588785046728972</v>
+        <v>0.1789473684210526</v>
       </c>
       <c r="L54">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="M54">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="N54">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>180</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K55">
-        <v>0.1584158415841584</v>
+        <v>0.1769230769230769</v>
       </c>
       <c r="L55">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M55">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>85</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K56">
-        <v>0.1572327044025157</v>
+        <v>0.1706730769230769</v>
       </c>
       <c r="L56">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="M56">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3123,73 +3057,73 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>134</v>
+        <v>345</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K57">
-        <v>0.154639175257732</v>
+        <v>0.15</v>
       </c>
       <c r="L57">
         <v>15</v>
       </c>
       <c r="M57">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K58">
-        <v>0.1488372093023256</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="L58">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="M58">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>183</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K59">
-        <v>0.125</v>
+        <v>0.1263982102908277</v>
       </c>
       <c r="L59">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="M59">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3201,21 +3135,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>98</v>
+        <v>781</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K60">
-        <v>0.125</v>
+        <v>0.1226993865030675</v>
       </c>
       <c r="L60">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M60">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3227,21 +3161,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>98</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K61">
-        <v>0.1212121212121212</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="L61">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M61">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3253,47 +3187,47 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K62">
-        <v>0.1162790697674419</v>
+        <v>0.1203703703703704</v>
       </c>
       <c r="L62">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M62">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>152</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K63">
-        <v>0.1152125279642058</v>
+        <v>0.1130434782608696</v>
       </c>
       <c r="L63">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M63">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3305,125 +3239,125 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>791</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K64">
-        <v>0.1140350877192982</v>
+        <v>0.1116279069767442</v>
       </c>
       <c r="L64">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M64">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N64">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K65">
-        <v>0.09848484848484848</v>
+        <v>0.1104651162790698</v>
       </c>
       <c r="L65">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M65">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N65">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>119</v>
+        <v>153</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K66">
-        <v>0.09774436090225563</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="L66">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M66">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N66">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K67">
-        <v>0.0958904109589041</v>
+        <v>0.103030303030303</v>
       </c>
       <c r="L67">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M67">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N67">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K68">
-        <v>0.09480122324159021</v>
+        <v>0.09767441860465116</v>
       </c>
       <c r="L68">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M68">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3435,229 +3369,229 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>296</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K69">
-        <v>0.0913312693498452</v>
+        <v>0.0948905109489051</v>
       </c>
       <c r="L69">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M69">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="N69">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>587</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K70">
-        <v>0.08453837597330367</v>
+        <v>0.09342560553633218</v>
       </c>
       <c r="L70">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M70">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N70">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>823</v>
+        <v>786</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K71">
-        <v>0.08108108108108109</v>
+        <v>0.09202453987730061</v>
       </c>
       <c r="L71">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M71">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>170</v>
+        <v>296</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K72">
-        <v>0.07422680412371134</v>
+        <v>0.0880503144654088</v>
       </c>
       <c r="L72">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="M72">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="N72">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>449</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K73">
-        <v>0.07390300230946882</v>
+        <v>0.0880503144654088</v>
       </c>
       <c r="L73">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="M73">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="N73">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>802</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K74">
-        <v>0.06818181818181818</v>
+        <v>0.08453837597330367</v>
       </c>
       <c r="L74">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="M74">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>287</v>
+        <v>823</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="K75">
-        <v>0.06763738844527947</v>
+        <v>0.08116883116883117</v>
       </c>
       <c r="L75">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="M75">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="N75">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>1985</v>
+        <v>283</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K76">
-        <v>0.06167400881057269</v>
+        <v>0.07561728395061729</v>
       </c>
       <c r="L76">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="M76">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>213</v>
+        <v>599</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K77">
-        <v>0.05617977528089887</v>
+        <v>0.07027027027027027</v>
       </c>
       <c r="L77">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M77">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3669,163 +3603,267 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>252</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K78">
-        <v>0.04266389177939646</v>
+        <v>0.06469760900140648</v>
       </c>
       <c r="L78">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="M78">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="N78">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="O78">
-        <v>0.15</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>920</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K79">
-        <v>0.04022988505747126</v>
+        <v>0.06015037593984962</v>
       </c>
       <c r="L79">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M79">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N79">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O79">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>334</v>
+        <v>250</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="K80">
-        <v>0.03859876743431722</v>
+        <v>0.05967078189300411</v>
       </c>
       <c r="L80">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="M80">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="N80">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="O80">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>2964</v>
+        <v>457</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K81">
-        <v>0.03512014787430684</v>
+        <v>0.04605263157894737</v>
       </c>
       <c r="L81">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M81">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N81">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="O81">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>522</v>
+        <v>290</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K82">
-        <v>0.02678008821676119</v>
+        <v>0.03626943005181347</v>
       </c>
       <c r="L82">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="M82">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="N82">
-        <v>0.76</v>
+        <v>0.85</v>
       </c>
       <c r="O82">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>3089</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K83">
+        <v>0.03374777975133215</v>
+      </c>
+      <c r="L83">
+        <v>19</v>
+      </c>
+      <c r="M83">
+        <v>23</v>
+      </c>
+      <c r="N83">
+        <v>0.83</v>
+      </c>
+      <c r="O83">
+        <v>0.17</v>
+      </c>
+      <c r="P83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K83">
-        <v>0.0216076058772688</v>
-      </c>
-      <c r="L83">
-        <v>25</v>
-      </c>
-      <c r="M83">
-        <v>29</v>
-      </c>
-      <c r="N83">
-        <v>0.86</v>
-      </c>
-      <c r="O83">
-        <v>0.14</v>
-      </c>
-      <c r="P83" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q83">
-        <v>1132</v>
+      <c r="K84">
+        <v>0.03339517625231911</v>
+      </c>
+      <c r="L84">
+        <v>18</v>
+      </c>
+      <c r="M84">
+        <v>24</v>
+      </c>
+      <c r="N84">
+        <v>0.75</v>
+      </c>
+      <c r="O84">
+        <v>0.25</v>
+      </c>
+      <c r="P84" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K85">
+        <v>0.02916666666666667</v>
+      </c>
+      <c r="L85">
+        <v>28</v>
+      </c>
+      <c r="M85">
+        <v>36</v>
+      </c>
+      <c r="N85">
+        <v>0.78</v>
+      </c>
+      <c r="O85">
+        <v>0.22</v>
+      </c>
+      <c r="P85" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K86">
+        <v>0.01985502678852821</v>
+      </c>
+      <c r="L86">
+        <v>63</v>
+      </c>
+      <c r="M86">
+        <v>91</v>
+      </c>
+      <c r="N86">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O86">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="P86" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K87">
+        <v>0.01642178046672429</v>
+      </c>
+      <c r="L87">
+        <v>19</v>
+      </c>
+      <c r="M87">
+        <v>23</v>
+      </c>
+      <c r="N87">
+        <v>0.83</v>
+      </c>
+      <c r="O87">
+        <v>0.17</v>
+      </c>
+      <c r="P87" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>1138</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="139">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,352 +40,388 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>warning</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>uncertainty</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>hell</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>died</t>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>anxiety</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>fuck</t>
+    <t>serious</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>selfish</t>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>anxiety</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>shortages</t>
   </si>
   <si>
     <t>shortage</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>empty</t>
   </si>
   <si>
     <t>isolation</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>empty</t>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>fight</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>outbreak</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>strong</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>healthy</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>community</t>
+    <t>key</t>
   </si>
   <si>
     <t>available</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>amazon</t>
-  </si>
-  <si>
     <t>helping</t>
   </si>
   <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
     <t>increased</t>
   </si>
   <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
     <t>health</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
     <t>customers</t>
   </si>
   <si>
-    <t>also</t>
+    <t>news</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>home</t>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>grocery</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>delivery</t>
+    <t>social</t>
   </si>
   <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>grocery</t>
+    <t>us</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>consumer</t>
   </si>
   <si>
     <t>stay</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
     <t>shop</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>san</t>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>workers</t>
   </si>
   <si>
     <t>get</t>
-  </si>
-  <si>
-    <t>toilet</t>
   </si>
   <si>
     <t>people</t>
@@ -752,7 +788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:Q91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -760,10 +796,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -824,10 +860,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -842,16 +878,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="K3">
-        <v>0.9661016949152542</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -863,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -892,16 +928,16 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="K4">
-        <v>0.9393939393939394</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -913,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -921,13 +957,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -939,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -963,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -971,13 +1007,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7391304347826086</v>
+        <v>0.84</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -989,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="K6">
-        <v>0.8392857142857143</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L6">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1013,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1021,13 +1057,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7241379310344828</v>
+        <v>0.75</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1039,19 +1075,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="K7">
-        <v>0.8309859154929577</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L7">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1063,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1071,13 +1107,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7226027397260274</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C8">
-        <v>211</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>211</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1089,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K8">
-        <v>0.8292682926829268</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L8">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="M8">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1113,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1121,13 +1157,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7222222222222222</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1139,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K9">
-        <v>0.8103448275862069</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1163,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1171,13 +1207,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6521739130434783</v>
+        <v>0.7226027397260274</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1189,19 +1225,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="K10">
-        <v>0.8046875</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="L10">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="M10">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1213,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1221,13 +1257,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.631578947368421</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1239,19 +1275,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K11">
-        <v>0.7916666666666666</v>
+        <v>0.8359375</v>
       </c>
       <c r="L11">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="M11">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1263,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1271,13 +1307,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6153846153846154</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1289,19 +1325,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K12">
-        <v>0.7872340425531915</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L12">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1313,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1321,13 +1357,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1339,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="K13">
-        <v>0.7843137254901961</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L13">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="M13">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1363,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1371,13 +1407,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5897435897435898</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1389,19 +1425,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K14">
-        <v>0.7692307692307693</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L14">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M14">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1413,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1421,13 +1457,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5675675675675675</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1439,19 +1475,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="K15">
-        <v>0.7619047619047619</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L15">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="M15">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1463,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1471,37 +1507,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5161290322580645</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="C16">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>16</v>
       </c>
-      <c r="D16">
-        <v>16</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>15</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="K16">
-        <v>0.7407407407407407</v>
+        <v>0.7625</v>
       </c>
       <c r="L16">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="M16">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1513,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1521,13 +1557,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5135135135135135</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1539,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K17">
-        <v>0.7358490566037735</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1563,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1571,13 +1607,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4871794871794872</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1589,19 +1625,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="K18">
-        <v>0.7272727272727273</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M18">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1613,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1621,13 +1657,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4722222222222222</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1639,19 +1675,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K19">
-        <v>0.71875</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L19">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="M19">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1663,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1671,13 +1707,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4705882352941176</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1689,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="K20">
-        <v>0.6914893617021277</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L20">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="M20">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1713,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1721,13 +1757,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4476744186046512</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C21">
-        <v>231</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>231</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1739,19 +1775,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>285</v>
+        <v>12</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1763,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1771,13 +1807,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4429530201342282</v>
+        <v>0.5</v>
       </c>
       <c r="C22">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1789,19 +1825,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="K22">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L22">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="M22">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1813,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1821,13 +1857,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4193548387096774</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1839,19 +1875,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K23">
-        <v>0.6475195822454308</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L23">
-        <v>248</v>
+        <v>19</v>
       </c>
       <c r="M23">
-        <v>248</v>
+        <v>19</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1863,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>135</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1871,13 +1907,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4067796610169492</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1889,19 +1925,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K24">
-        <v>0.6296296296296297</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L24">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="M24">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1913,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1921,13 +1957,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C25">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D25">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1939,19 +1975,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K25">
-        <v>0.6046511627906976</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L25">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1963,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1971,13 +2007,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3529411764705883</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="C26">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1989,19 +2025,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.6657963446475196</v>
       </c>
       <c r="L26">
-        <v>27</v>
+        <v>255</v>
       </c>
       <c r="M26">
-        <v>27</v>
+        <v>255</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2013,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>18</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2021,13 +2057,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3386243386243386</v>
+        <v>0.4341085271317829</v>
       </c>
       <c r="C27">
-        <v>64</v>
+        <v>224</v>
       </c>
       <c r="D27">
-        <v>64</v>
+        <v>224</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2039,19 +2075,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>125</v>
+        <v>292</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="K27">
-        <v>0.6</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L27">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M27">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2063,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2071,13 +2107,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3222222222222222</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C28">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2089,19 +2125,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="K28">
-        <v>0.5970588235294118</v>
+        <v>0.64</v>
       </c>
       <c r="L28">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c r="M28">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2113,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>137</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2121,13 +2157,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3220338983050847</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C29">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D29">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2139,19 +2175,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K29">
-        <v>0.575</v>
+        <v>0.5794117647058824</v>
       </c>
       <c r="L29">
-        <v>23</v>
+        <v>197</v>
       </c>
       <c r="M29">
-        <v>23</v>
+        <v>197</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2163,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>17</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2171,13 +2207,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2909090909090909</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2189,19 +2225,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="K30">
-        <v>0.559322033898305</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L30">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="M30">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2213,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>130</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2221,13 +2257,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2875</v>
+        <v>0.4093959731543624</v>
       </c>
       <c r="C31">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="D31">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2239,19 +2275,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K31">
-        <v>0.550561797752809</v>
+        <v>0.5728813559322034</v>
       </c>
       <c r="L31">
-        <v>49</v>
+        <v>169</v>
       </c>
       <c r="M31">
-        <v>49</v>
+        <v>169</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2263,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>40</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2271,13 +2307,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2857142857142857</v>
+        <v>0.3597883597883598</v>
       </c>
       <c r="C32">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="D32">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2289,19 +2325,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="K32">
-        <v>0.5416666666666666</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L32">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M32">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2313,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2321,13 +2357,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.25</v>
+        <v>0.3414634146341464</v>
       </c>
       <c r="C33">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="D33">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2339,19 +2375,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="K33">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2363,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2371,13 +2407,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1474530831099196</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C34">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="D34">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2389,19 +2425,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>318</v>
+        <v>39</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K34">
-        <v>0.5294117647058824</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="L34">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="M34">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2413,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2421,37 +2457,37 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1090909090909091</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C35">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D35">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E35">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K35">
-        <v>0.5277777777777778</v>
+        <v>0.5313807531380753</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2463,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>17</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2471,37 +2507,37 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.008922880815806247</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C36">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D36">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="E36">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.3100000000000001</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>3110</v>
+        <v>34</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="K36">
-        <v>0.5161290322580645</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L36">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="M36">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2513,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2521,63 +2557,87 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.006343906510851419</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="C37">
+        <v>24</v>
+      </c>
+      <c r="D37">
+        <v>24</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>53</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K37">
+        <v>0.525</v>
+      </c>
+      <c r="L37">
+        <v>21</v>
+      </c>
+      <c r="M37">
+        <v>21</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <v>19</v>
       </c>
-      <c r="D37">
-        <v>131</v>
-      </c>
-      <c r="E37">
-        <v>0.85</v>
-      </c>
-      <c r="F37">
-        <v>0.15</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>2976</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K37">
-        <v>0.502092050209205</v>
-      </c>
-      <c r="L37">
-        <v>120</v>
-      </c>
-      <c r="M37">
-        <v>120</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>119</v>
-      </c>
     </row>
     <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.2875</v>
+      </c>
+      <c r="C38">
+        <v>23</v>
+      </c>
+      <c r="D38">
+        <v>23</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>57</v>
+      </c>
       <c r="J38" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K38">
         <v>0.5</v>
       </c>
       <c r="L38">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M38">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2589,177 +2649,345 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.2711864406779661</v>
+      </c>
+      <c r="C39">
+        <v>16</v>
+      </c>
+      <c r="D39">
+        <v>16</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>43</v>
+      </c>
       <c r="J39" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K39">
+        <v>0.4871794871794872</v>
+      </c>
+      <c r="L39">
+        <v>38</v>
+      </c>
+      <c r="M39">
+        <v>38</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.257936507936508</v>
+      </c>
+      <c r="C40">
+        <v>65</v>
+      </c>
+      <c r="D40">
+        <v>65</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>187</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K40">
+        <v>0.4857142857142857</v>
+      </c>
+      <c r="L40">
+        <v>17</v>
+      </c>
+      <c r="M40">
+        <v>17</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.2545454545454545</v>
+      </c>
+      <c r="C41">
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <v>14</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>41</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K41">
+        <v>0.4814814814814815</v>
+      </c>
+      <c r="L41">
+        <v>13</v>
+      </c>
+      <c r="M41">
+        <v>13</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.1586021505376344</v>
+      </c>
+      <c r="C42">
+        <v>59</v>
+      </c>
+      <c r="D42">
+        <v>60</v>
+      </c>
+      <c r="E42">
+        <v>0.02</v>
+      </c>
+      <c r="F42">
+        <v>0.98</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>313</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K42">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="L42">
+        <v>16</v>
+      </c>
+      <c r="M42">
+        <v>16</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="C43">
+        <v>15</v>
+      </c>
+      <c r="D43">
+        <v>16</v>
+      </c>
+      <c r="E43">
+        <v>0.06</v>
+      </c>
+      <c r="F43">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>150</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K43">
         <v>0.4642857142857143</v>
       </c>
-      <c r="L39">
+      <c r="L43">
         <v>13</v>
       </c>
-      <c r="M39">
+      <c r="M43">
         <v>13</v>
       </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K40">
-        <v>0.453125</v>
-      </c>
-      <c r="L40">
-        <v>29</v>
-      </c>
-      <c r="M40">
-        <v>29</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K41">
-        <v>0.45</v>
-      </c>
-      <c r="L41">
-        <v>18</v>
-      </c>
-      <c r="M41">
-        <v>18</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
+    <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.009161859518154056</v>
+      </c>
+      <c r="C44">
+        <v>27</v>
+      </c>
+      <c r="D44">
+        <v>187</v>
+      </c>
+      <c r="E44">
+        <v>0.86</v>
+      </c>
+      <c r="F44">
+        <v>0.14</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>2920</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K44">
+        <v>0.4634146341463415</v>
+      </c>
+      <c r="L44">
+        <v>19</v>
+      </c>
+      <c r="M44">
+        <v>20</v>
+      </c>
+      <c r="N44">
+        <v>0.95</v>
+      </c>
+      <c r="O44">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K42">
-        <v>0.4246575342465753</v>
-      </c>
-      <c r="L42">
-        <v>31</v>
-      </c>
-      <c r="M42">
-        <v>31</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K43">
-        <v>0.4142857142857143</v>
-      </c>
-      <c r="L43">
-        <v>29</v>
-      </c>
-      <c r="M43">
-        <v>29</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K44">
-        <v>0.4047619047619048</v>
-      </c>
-      <c r="L44">
-        <v>17</v>
-      </c>
-      <c r="M44">
-        <v>17</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
+    <row r="45" spans="1:17">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.008030838419530999</v>
+      </c>
+      <c r="C45">
         <v>25</v>
       </c>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="D45">
+        <v>113</v>
+      </c>
+      <c r="E45">
+        <v>0.78</v>
+      </c>
+      <c r="F45">
+        <v>0.22</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>3088</v>
+      </c>
       <c r="J45" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="K45">
-        <v>0.3829787234042553</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="L45">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M45">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2771,30 +2999,30 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="K46">
-        <v>0.3389830508474576</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="L46">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M46">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
         <v>39</v>
@@ -2802,16 +3030,16 @@
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="K47">
-        <v>0.2978723404255319</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L47">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M47">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2823,21 +3051,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="K48">
-        <v>0.2830188679245283</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="L48">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M48">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2849,21 +3077,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K49">
-        <v>0.2372881355932203</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L49">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M49">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2875,21 +3103,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="K50">
-        <v>0.2361111111111111</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L50">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2901,21 +3129,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K51">
-        <v>0.2131147540983606</v>
+        <v>0.2210526315789474</v>
       </c>
       <c r="L51">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M51">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2927,21 +3155,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>48</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K52">
-        <v>0.2057416267942584</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="L52">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="M52">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2953,21 +3181,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>332</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K53">
-        <v>0.1811023622047244</v>
+        <v>0.2009569377990431</v>
       </c>
       <c r="L53">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="M53">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2979,21 +3207,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>104</v>
+        <v>334</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K54">
-        <v>0.1789473684210526</v>
+        <v>0.1968503937007874</v>
       </c>
       <c r="L54">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M54">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3005,47 +3233,47 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>78</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K55">
-        <v>0.1769230769230769</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="L55">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M55">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N55">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>107</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K56">
-        <v>0.1706730769230769</v>
+        <v>0.183206106870229</v>
       </c>
       <c r="L56">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="M56">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3057,73 +3285,73 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>345</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K57">
-        <v>0.15</v>
+        <v>0.1745283018867924</v>
       </c>
       <c r="L57">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M57">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="N57">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O57">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>85</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K58">
-        <v>0.1473684210526316</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="L58">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="M58">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="N58">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>81</v>
+        <v>344</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K59">
-        <v>0.1263982102908277</v>
+        <v>0.1595092024539877</v>
       </c>
       <c r="L59">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="M59">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3135,21 +3363,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>781</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="K60">
-        <v>0.1226993865030675</v>
+        <v>0.1441860465116279</v>
       </c>
       <c r="L60">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M60">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3161,21 +3389,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>143</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="K61">
-        <v>0.1224489795918367</v>
+        <v>0.1393939393939394</v>
       </c>
       <c r="L61">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M61">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3187,47 +3415,47 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K62">
-        <v>0.1203703703703704</v>
+        <v>0.1391304347826087</v>
       </c>
       <c r="L62">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M62">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N62">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K63">
-        <v>0.1130434782608696</v>
+        <v>0.1383647798742138</v>
       </c>
       <c r="L63">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M63">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3239,21 +3467,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>102</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K64">
-        <v>0.1116279069767442</v>
+        <v>0.1383647798742138</v>
       </c>
       <c r="L64">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M64">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3265,21 +3493,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>191</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K65">
-        <v>0.1104651162790698</v>
+        <v>0.1360544217687075</v>
       </c>
       <c r="L65">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M65">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3291,21 +3519,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>153</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="K66">
-        <v>0.108695652173913</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="L66">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M66">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3317,21 +3545,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>123</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K67">
-        <v>0.103030303030303</v>
+        <v>0.1287128712871287</v>
       </c>
       <c r="L67">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M67">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3343,125 +3571,125 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>148</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="K68">
-        <v>0.09767441860465116</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="L68">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M68">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>194</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K69">
-        <v>0.0948905109489051</v>
+        <v>0.1187010078387458</v>
       </c>
       <c r="L69">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="M69">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>124</v>
+        <v>787</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="K70">
-        <v>0.09342560553633218</v>
+        <v>0.1107692307692308</v>
       </c>
       <c r="L70">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="M70">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>786</v>
+        <v>289</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K71">
-        <v>0.09202453987730061</v>
+        <v>0.1092783505154639</v>
       </c>
       <c r="L71">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="M71">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="N71">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O71">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>296</v>
+        <v>432</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K72">
-        <v>0.0880503144654088</v>
+        <v>0.1043285238623751</v>
       </c>
       <c r="L72">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="M72">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -3473,21 +3701,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>145</v>
+        <v>807</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="K73">
-        <v>0.0880503144654088</v>
+        <v>0.09883720930232558</v>
       </c>
       <c r="L73">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M73">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -3499,177 +3727,177 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="K74">
-        <v>0.08453837597330367</v>
+        <v>0.09170305676855896</v>
       </c>
       <c r="L74">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="M74">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="N74">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O74">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>823</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="K75">
-        <v>0.08116883116883117</v>
+        <v>0.09164733178654293</v>
       </c>
       <c r="L75">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="M75">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75">
-        <v>283</v>
+        <v>783</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="K76">
-        <v>0.07561728395061729</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="L76">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="M76">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="N76">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>599</v>
+        <v>243</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="K77">
-        <v>0.07027027027027027</v>
+        <v>0.08771106941838649</v>
       </c>
       <c r="L77">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="M77">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>172</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="K78">
-        <v>0.06469760900140648</v>
+        <v>0.08540372670807453</v>
       </c>
       <c r="L78">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="M78">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="N78">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="O78">
-        <v>0.06999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>1995</v>
+        <v>589</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="K79">
-        <v>0.06015037593984962</v>
+        <v>0.07467532467532467</v>
       </c>
       <c r="L79">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M79">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N79">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>250</v>
+        <v>285</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="K80">
-        <v>0.05967078189300411</v>
+        <v>0.07027027027027027</v>
       </c>
       <c r="L80">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M80">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3681,189 +3909,293 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>457</v>
+        <v>172</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="K81">
-        <v>0.04605263157894737</v>
+        <v>0.0603448275862069</v>
       </c>
       <c r="L81">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M81">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N81">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="O81">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>290</v>
+        <v>327</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="K82">
-        <v>0.03626943005181347</v>
+        <v>0.05932203389830509</v>
       </c>
       <c r="L82">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="M82">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="N82">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="O82">
-        <v>0.15</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>2976</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="K83">
-        <v>0.03374777975133215</v>
+        <v>0.05803571428571429</v>
       </c>
       <c r="L83">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M83">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N83">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="O83">
-        <v>0.17</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>544</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>124</v>
+        <v>49</v>
       </c>
       <c r="K84">
-        <v>0.03339517625231911</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="L84">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="M84">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="N84">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="O84">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>521</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="K85">
-        <v>0.02916666666666667</v>
+        <v>0.04778761061946903</v>
       </c>
       <c r="L85">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M85">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N85">
-        <v>0.78</v>
+        <v>0.93</v>
       </c>
       <c r="O85">
-        <v>0.22</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>932</v>
+        <v>538</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="K86">
-        <v>0.01985502678852821</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="L86">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="M86">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="N86">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="O86">
-        <v>0.3100000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="P86" t="b">
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>3110</v>
+        <v>280</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="K87">
-        <v>0.01642178046672429</v>
+        <v>0.04276315789473684</v>
       </c>
       <c r="L87">
+        <v>13</v>
+      </c>
+      <c r="M87">
+        <v>15</v>
+      </c>
+      <c r="N87">
+        <v>0.87</v>
+      </c>
+      <c r="O87">
+        <v>0.13</v>
+      </c>
+      <c r="P87" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K88">
+        <v>0.03531598513011153</v>
+      </c>
+      <c r="L88">
         <v>19</v>
       </c>
-      <c r="M87">
-        <v>23</v>
-      </c>
-      <c r="N87">
-        <v>0.83</v>
-      </c>
-      <c r="O87">
-        <v>0.17</v>
-      </c>
-      <c r="P87" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q87">
-        <v>1138</v>
+      <c r="M88">
+        <v>26</v>
+      </c>
+      <c r="N88">
+        <v>0.73</v>
+      </c>
+      <c r="O88">
+        <v>0.27</v>
+      </c>
+      <c r="P88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17">
+      <c r="J89" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K89">
+        <v>0.03423236514522822</v>
+      </c>
+      <c r="L89">
+        <v>33</v>
+      </c>
+      <c r="M89">
+        <v>37</v>
+      </c>
+      <c r="N89">
+        <v>0.89</v>
+      </c>
+      <c r="O89">
+        <v>0.11</v>
+      </c>
+      <c r="P89" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="90" spans="10:17">
+      <c r="J90" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K90">
+        <v>0.03035559410234172</v>
+      </c>
+      <c r="L90">
+        <v>35</v>
+      </c>
+      <c r="M90">
+        <v>43</v>
+      </c>
+      <c r="N90">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O90">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P90" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="91" spans="10:17">
+      <c r="J91" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K91">
+        <v>0.02770780856423174</v>
+      </c>
+      <c r="L91">
+        <v>88</v>
+      </c>
+      <c r="M91">
+        <v>113</v>
+      </c>
+      <c r="N91">
+        <v>0.78</v>
+      </c>
+      <c r="O91">
+        <v>0.22</v>
+      </c>
+      <c r="P91" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>3088</v>
       </c>
     </row>
   </sheetData>
